--- a/customer/Aung_Customer_Product.xlsx
+++ b/customer/Aung_Customer_Product.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Customer_Product" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
   <si>
     <t>Create Date</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t>Food Lab</t>
+  </si>
+  <si>
+    <t>2022/03/06</t>
+  </si>
+  <si>
+    <t>2022/03/05</t>
   </si>
 </sst>
 </file>
@@ -700,9 +706,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -716,6 +719,57 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,6 +794,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -749,18 +815,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -773,8 +833,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -782,14 +857,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -797,92 +881,14 @@
     <xf numFmtId="14" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1200,159 +1206,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="13" max="13" width="19.25" customWidth="1"/>
-    <col min="14" max="14" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="56" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="57">
+      <c r="P2" s="35">
         <v>44501</v>
       </c>
-      <c r="Q2" s="58"/>
+      <c r="Q2" s="36"/>
       <c r="R2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="59" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="37">
         <v>44501</v>
       </c>
-      <c r="Q3" s="61"/>
+      <c r="Q3" s="38"/>
       <c r="R3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
       <c r="R4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="24">
+        <v>32</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="64" t="s">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="N5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="64" t="s">
+      <c r="O5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="P5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="66"/>
-      <c r="B6" s="63" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="64" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="64" t="s">
+      <c r="O6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="64" t="s">
+      <c r="P6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="65" t="s">
+      <c r="Q6" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1360,10 +1366,10 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="23" t="s">
         <v>22</v>
       </c>
@@ -1378,616 +1384,616 @@
       <c r="M7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="N7" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="53" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="N8" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="53" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="N9" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:18" ht="242.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="N10" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="279.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="53" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="N11" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="318.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="53" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="N12" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="269.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="53" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="N13" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>8</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="53" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="N14" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>9</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="53" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="N15" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>10</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="53" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="N16" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>11</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="54" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="N17" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="N18" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="N19" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>14</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="53" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="N20" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>15</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="53" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="N21" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>16</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="53" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="N22" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>17</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="53" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="N23" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>18</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="53" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
+      <c r="N24" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>19</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="53" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
+      <c r="N25" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>20</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="53" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="N26" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>21</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="53" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="3">
-        <v>44625</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="N27" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
     </row>
     <row r="31" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:L27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:L12"/>
     <mergeCell ref="B13:C13"/>
@@ -2000,26 +2006,26 @@
     <mergeCell ref="D15:L15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:L16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:L27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:L25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="37" orientation="portrait" r:id="rId1"/>
@@ -2030,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="68" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2043,648 +2049,682 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="36">
+      <c r="P2" s="62">
         <v>44501</v>
       </c>
-      <c r="Q2" s="37"/>
+      <c r="Q2" s="63"/>
       <c r="R2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="43">
+      <c r="P3" s="64">
         <v>44501</v>
       </c>
-      <c r="Q3" s="44"/>
+      <c r="Q3" s="65"/>
       <c r="R3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
       <c r="R4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="50" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="50" t="s">
+      <c r="N5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="O5" s="50" t="s">
+      <c r="O5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="52"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="50" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="50" t="s">
+      <c r="O6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="50" t="s">
+      <c r="P6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="Q6" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="8"/>
+      <c r="N7" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="45" t="s">
+      <c r="C8" s="44"/>
+      <c r="D8" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="8"/>
+      <c r="N8" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="50"/>
       <c r="M9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="8"/>
+      <c r="N9" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="237.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>4</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="50"/>
       <c r="M10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="8"/>
+      <c r="N10" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="8"/>
+      <c r="N11" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>6</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="44"/>
+      <c r="D12" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="8"/>
+      <c r="N12" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="8"/>
+      <c r="N13" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>8</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="10"/>
+      <c r="N14" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>9</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="8"/>
+      <c r="N15" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>10</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="8"/>
+      <c r="N16" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="1:17" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>11</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="8"/>
+      <c r="N17" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>12</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="44"/>
+      <c r="D18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="26"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="8"/>
+      <c r="N18" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>13</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N19" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="8"/>
+      <c r="N19" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>14</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="47"/>
       <c r="M20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N20" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="8"/>
+      <c r="N20" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>15</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
       <c r="M21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="8"/>
+      <c r="N21" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>16</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="47"/>
       <c r="M22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="8"/>
+      <c r="N22" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="1:17" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>17</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="3">
-        <v>44626</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="8"/>
+      <c r="N23" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:17" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:L20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:L22"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="B15:C15"/>
@@ -2695,40 +2735,6 @@
     <mergeCell ref="D16:L16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:L17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:L23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:L20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A4:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="42" orientation="portrait" r:id="rId1"/>
